--- a/docs/assets/release/v0_2_0/jig/business-rule.xlsx
+++ b/docs/assets/release/v0_2_0/jig/business-rule.xlsx
@@ -14,7 +14,7 @@
     <sheet name="注意メソッド" r:id="rId8" sheetId="6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">PACKAGE!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">PACKAGE!$A$1:$C$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">ALL!$A$1:$J$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">ENUM!$A$1:$J$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">COLLECTION!$A$1:$H$6</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="285">
   <si>
     <t/>
   </si>
@@ -39,63 +39,48 @@
     <t>クラス数</t>
   </si>
   <si>
-    <t>com.example.sms.domain.model.common.money</t>
+    <t>com.example.sms.domain.model.master.department</t>
+  </si>
+  <si>
+    <t>部門</t>
+  </si>
+  <si>
+    <t>com.example.sms.domain.model.master.employee</t>
+  </si>
+  <si>
+    <t>社員</t>
+  </si>
+  <si>
+    <t>com.example.sms.domain.model.master.product</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>com.example.sms.domain.model.system.auth</t>
+  </si>
+  <si>
+    <t>認証</t>
+  </si>
+  <si>
+    <t>com.example.sms.domain.model.system.user</t>
+  </si>
+  <si>
+    <t>ユーザー</t>
+  </si>
+  <si>
+    <t>com.example.sms.domain.type.money</t>
   </si>
   <si>
     <t>通貨</t>
   </si>
   <si>
-    <t>com.example.sms.domain.model.common.quantity</t>
+    <t>com.example.sms.domain.type.quantity</t>
   </si>
   <si>
     <t>数量</t>
   </si>
   <si>
-    <t>com.example.sms.domain.model.master.department</t>
-  </si>
-  <si>
-    <t>部門</t>
-  </si>
-  <si>
-    <t>com.example.sms.domain.model.master.employee</t>
-  </si>
-  <si>
-    <t>社員</t>
-  </si>
-  <si>
-    <t>com.example.sms.domain.model.master.product</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>com.example.sms.domain.model.system.auth</t>
-  </si>
-  <si>
-    <t>認証</t>
-  </si>
-  <si>
-    <t>com.example.sms.domain.model.system.user</t>
-  </si>
-  <si>
-    <t>ユーザー</t>
-  </si>
-  <si>
-    <t>com.example.sms.domain.type.department</t>
-  </si>
-  <si>
-    <t>com.example.sms.domain.type.money</t>
-  </si>
-  <si>
-    <t>com.example.sms.domain.type.product</t>
-  </si>
-  <si>
-    <t>com.example.sms.domain.type.quantity</t>
-  </si>
-  <si>
-    <t>com.example.sms.domain.type.user</t>
-  </si>
-  <si>
     <t>クラス名</t>
   </si>
   <si>
@@ -123,18 +108,393 @@
     <t>関連元クラス</t>
   </si>
   <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>不明</t>
+  </si>
+  <si>
+    <t>[DepartmentApiController, DepartmentDataSource, DepartmentEntityMapper, DepartmentList, DepartmentRepository, DepartmentService, Employee, EmployeeApiController, EmployeeEntityMapper]</t>
+  </si>
+  <si>
+    <t>DepartmentCode</t>
+  </si>
+  <si>
+    <t>部門コード</t>
+  </si>
+  <si>
+    <t>文字列</t>
+  </si>
+  <si>
+    <t>[DepartmentDataSource, DepartmentEntityMapper, DepartmentId, DepartmentService, EmployeeEntityMapper]</t>
+  </si>
+  <si>
+    <t>DepartmentEndDate</t>
+  </si>
+  <si>
+    <t>終了日</t>
+  </si>
+  <si>
+    <t>[Department, DepartmentEntityMapper]</t>
+  </si>
+  <si>
+    <t>DepartmentId</t>
+  </si>
+  <si>
+    <t>部門ID</t>
+  </si>
+  <si>
+    <t>[Department, DepartmentApiController, DepartmentDataSource, DepartmentEntityMapper, DepartmentRepository, DepartmentService, EmployeeApiController, EmployeeEntityMapper]</t>
+  </si>
+  <si>
+    <t>DepartmentList</t>
+  </si>
+  <si>
+    <t>部門一覧</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>[DepartmentApiController, DepartmentDataSource, DepartmentRepository, DepartmentService]</t>
+  </si>
+  <si>
+    <t>DepartmentLowerType</t>
+  </si>
+  <si>
+    <t>最下層区分</t>
+  </si>
+  <si>
+    <t>区分</t>
+  </si>
+  <si>
+    <t>[Department, DepartmentApiController, DepartmentEntityMapper, DepartmentResource]</t>
+  </si>
+  <si>
+    <t>DepartmentPath</t>
+  </si>
+  <si>
+    <t>部門パス</t>
+  </si>
+  <si>
+    <t>DepartmentStartDate</t>
+  </si>
+  <si>
+    <t>開始日</t>
+  </si>
+  <si>
+    <t>[Department, DepartmentDataSource, DepartmentEntityMapper, DepartmentId, EmployeeEntityMapper]</t>
+  </si>
+  <si>
+    <t>SlitYnType</t>
+  </si>
+  <si>
+    <t>伝票入力可否</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>[Department, DepartmentApiController, DepartmentEntityMapper, DepartmentService, EmployeeApiController, EmployeeDataSource, EmployeeEntityMapper, EmployeeList, EmployeeRepository, EmployeeService]</t>
+  </si>
+  <si>
+    <t>EmployeeCode</t>
+  </si>
+  <si>
+    <t>社員コード</t>
+  </si>
+  <si>
+    <t>[DepartmentService, Employee, EmployeeApiController, EmployeeDataSource, EmployeeEntityMapper, EmployeeRepository, EmployeeService]</t>
+  </si>
+  <si>
+    <t>EmployeeList</t>
+  </si>
+  <si>
+    <t>社員一覧</t>
+  </si>
+  <si>
+    <t>[EmployeeDataSource, EmployeeRepository, EmployeeService]</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>社員名</t>
+  </si>
+  <si>
+    <t>[Employee, EmployeeEntityMapper]</t>
+  </si>
+  <si>
+    <t>FaxNumber</t>
+  </si>
+  <si>
+    <t>FAX番号</t>
+  </si>
+  <si>
+    <t>JobCode</t>
+  </si>
+  <si>
+    <t>職種コード</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>[Employee, EmployeeEntityMapper, FaxNumber]</t>
+  </si>
+  <si>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>部品表</t>
+  </si>
+  <si>
+    <t>[Product, ProductDataSource, ProductEntityMapper, ProductResource]</t>
+  </si>
+  <si>
+    <t>BusinessType</t>
+  </si>
+  <si>
+    <t>事業区分</t>
+  </si>
+  <si>
+    <t>◯</t>
+  </si>
+  <si>
+    <t>[ProductCode]</t>
+  </si>
+  <si>
+    <t>CustomerSpecificSellingPrice</t>
+  </si>
+  <si>
+    <t>顧客別販売単価</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>品目区分</t>
+  </si>
+  <si>
+    <t>LiveStockType</t>
+  </si>
+  <si>
+    <t>畜産区分</t>
+  </si>
+  <si>
+    <t>MiscellaneousType</t>
+  </si>
+  <si>
+    <t>雑区分</t>
+  </si>
+  <si>
+    <t>[Product, ProductApiController, ProductCategoryApiController, ProductCategoryEntityMapper, ProductEntityMapper, ProductResource]</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>[ProductApiController, ProductCategory, ProductCategoryApiController, ProductCategoryEntityMapper, ProductDataSource, ProductEntityMapper, ProductList, ProductRepository, ProductService]</t>
+  </si>
+  <si>
+    <t>ProductCategory</t>
+  </si>
+  <si>
+    <t>商品分類</t>
+  </si>
+  <si>
+    <t>[Product, ProductCategoryApiController, ProductCategoryDataSource, ProductCategoryEntityMapper, ProductCategoryList, ProductCategoryRepository, ProductService]</t>
+  </si>
+  <si>
+    <t>ProductCategoryCode</t>
+  </si>
+  <si>
+    <t>商品分類コード</t>
+  </si>
+  <si>
+    <t>[Product, ProductCategory, ProductCategoryApiController, ProductCategoryDataSource, ProductCategoryEntityMapper, ProductEntityMapper]</t>
+  </si>
+  <si>
+    <t>ProductCategoryList</t>
+  </si>
+  <si>
+    <t>商品分類一覧</t>
+  </si>
+  <si>
+    <t>[ProductCategoryDataSource, ProductCategoryRepository, ProductService]</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>商品コード</t>
+  </si>
+  <si>
+    <t>[Bom, CustomerSpecificSellingPrice, Product, ProductApiController, ProductDataSource, ProductEntityMapper, ProductService, SubstituteProduct]</t>
+  </si>
+  <si>
+    <t>ProductList</t>
+  </si>
+  <si>
+    <t>商品一覧</t>
+  </si>
+  <si>
+    <t>[ProductDataSource, ProductRepository, ProductService]</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>[Product, ProductEntityMapper]</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>商品区分</t>
+  </si>
+  <si>
+    <t>[Product, ProductApiController, ProductCategoryApiController, ProductCategoryEntityMapper, ProductDataSource, ProductEntityMapper, ProductResource]</t>
+  </si>
+  <si>
+    <t>StockAllocationType</t>
+  </si>
+  <si>
+    <t>在庫引当区分</t>
+  </si>
+  <si>
+    <t>StockManagementTargetType</t>
+  </si>
+  <si>
+    <t>在庫管理対象区分</t>
+  </si>
+  <si>
+    <t>SubstituteProduct</t>
+  </si>
+  <si>
+    <t>代替商品</t>
+  </si>
+  <si>
+    <t>SupplierCode</t>
+  </si>
+  <si>
+    <t>仕入先コード</t>
+  </si>
+  <si>
+    <t>TaxType</t>
+  </si>
+  <si>
+    <t>税区分</t>
+  </si>
+  <si>
+    <t>AuthUserDetails</t>
+  </si>
+  <si>
+    <t>認証ユーザー</t>
+  </si>
+  <si>
+    <t>[AuthApiController, AuthApiService, AuthService, JwtUtils]</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>[User, UserEntityMapper]</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>[AuthUserDetails, User, UserApiController, UserEntityMapper]</t>
+  </si>
+  <si>
+    <t>PasswordException</t>
+  </si>
+  <si>
+    <t>パスワード例外</t>
+  </si>
+  <si>
+    <t>[Password]</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>役割</t>
+  </si>
+  <si>
+    <t>[AuthApiController, AuthUserDetails, EmployeeEntityMapper, User, UserApiController, UserEntityMapper, UserResource]</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>[AuthApiController, AuthRepository, AuthUserDetails, DepartmentService, Employee, EmployeeApiController, EmployeeEntityMapper, JwtDataSource, UserApiController, UserDataSource, UserEntityMapper, UserList, UserManagementService, UserRepository]</t>
+  </si>
+  <si>
+    <t>UserException</t>
+  </si>
+  <si>
+    <t>ユーザー例外</t>
+  </si>
+  <si>
+    <t>[User]</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>[AuthApiController, AuthApiService, AuthUserDetails, EmployeeApiController, EmployeeEntityMapper, User, UserApiController, UserDataSource, UserEntityMapper, UserManagementService]</t>
+  </si>
+  <si>
+    <t>UserIdException</t>
+  </si>
+  <si>
+    <t>ユーザーID例外</t>
+  </si>
+  <si>
+    <t>[UserId]</t>
+  </si>
+  <si>
+    <t>UserList</t>
+  </si>
+  <si>
+    <t>ユーザー一覧</t>
+  </si>
+  <si>
+    <t>[UserDataSource, UserManagementService, UserRepository]</t>
+  </si>
+  <si>
+    <t>CurrencyType</t>
+  </si>
+  <si>
+    <t>通貨タイプ</t>
+  </si>
+  <si>
+    <t>[Exchange, Expression, Money, Pair, Sum]</t>
+  </si>
+  <si>
     <t>Exchange</t>
   </si>
   <si>
     <t>為替</t>
   </si>
   <si>
-    <t>不明</t>
-  </si>
-  <si>
-    <t>◯</t>
-  </si>
-  <si>
     <t>[Expression, Money, Sum]</t>
   </si>
   <si>
@@ -177,372 +537,6 @@
     <t>[Bom, ProductEntityMapper]</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>[DepartmentApiController, DepartmentDataSource, DepartmentEntityMapper, DepartmentList, DepartmentRepository, DepartmentService, Employee, EmployeeApiController, EmployeeEntityMapper]</t>
-  </si>
-  <si>
-    <t>DepartmentCode</t>
-  </si>
-  <si>
-    <t>部門コード</t>
-  </si>
-  <si>
-    <t>文字列</t>
-  </si>
-  <si>
-    <t>[DepartmentDataSource, DepartmentEntityMapper, DepartmentId, DepartmentService, EmployeeEntityMapper]</t>
-  </si>
-  <si>
-    <t>DepartmentEndDate</t>
-  </si>
-  <si>
-    <t>終了日</t>
-  </si>
-  <si>
-    <t>[Department, DepartmentEntityMapper]</t>
-  </si>
-  <si>
-    <t>DepartmentId</t>
-  </si>
-  <si>
-    <t>部門ID</t>
-  </si>
-  <si>
-    <t>[Department, DepartmentApiController, DepartmentDataSource, DepartmentEntityMapper, DepartmentRepository, DepartmentService, EmployeeApiController, EmployeeEntityMapper]</t>
-  </si>
-  <si>
-    <t>DepartmentList</t>
-  </si>
-  <si>
-    <t>部門一覧</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>[DepartmentApiController, DepartmentDataSource, DepartmentRepository, DepartmentService]</t>
-  </si>
-  <si>
-    <t>DepartmentPath</t>
-  </si>
-  <si>
-    <t>部門パス</t>
-  </si>
-  <si>
-    <t>DepartmentStartDate</t>
-  </si>
-  <si>
-    <t>開始日</t>
-  </si>
-  <si>
-    <t>[Department, DepartmentDataSource, DepartmentEntityMapper, DepartmentId, EmployeeEntityMapper]</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>[Department, DepartmentApiController, DepartmentEntityMapper, DepartmentService, EmployeeApiController, EmployeeDataSource, EmployeeEntityMapper, EmployeeList, EmployeeRepository, EmployeeService]</t>
-  </si>
-  <si>
-    <t>EmployeeCode</t>
-  </si>
-  <si>
-    <t>社員コード</t>
-  </si>
-  <si>
-    <t>[DepartmentService, Employee, EmployeeApiController, EmployeeDataSource, EmployeeEntityMapper, EmployeeRepository, EmployeeService]</t>
-  </si>
-  <si>
-    <t>EmployeeList</t>
-  </si>
-  <si>
-    <t>社員一覧</t>
-  </si>
-  <si>
-    <t>[EmployeeDataSource, EmployeeRepository, EmployeeService]</t>
-  </si>
-  <si>
-    <t>EmployeeName</t>
-  </si>
-  <si>
-    <t>社員名</t>
-  </si>
-  <si>
-    <t>[Employee, EmployeeEntityMapper]</t>
-  </si>
-  <si>
-    <t>FaxNumber</t>
-  </si>
-  <si>
-    <t>FAX番号</t>
-  </si>
-  <si>
-    <t>JobCode</t>
-  </si>
-  <si>
-    <t>職種コード</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>電話番号</t>
-  </si>
-  <si>
-    <t>[Employee, EmployeeEntityMapper, FaxNumber]</t>
-  </si>
-  <si>
-    <t>Bom</t>
-  </si>
-  <si>
-    <t>部品表</t>
-  </si>
-  <si>
-    <t>[Product, ProductDataSource, ProductEntityMapper, ProductResource]</t>
-  </si>
-  <si>
-    <t>CustomerSpecificSellingPrice</t>
-  </si>
-  <si>
-    <t>顧客別販売単価</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>[ProductApiController, ProductCategory, ProductCategoryApiController, ProductCategoryEntityMapper, ProductDataSource, ProductEntityMapper, ProductList, ProductRepository, ProductService]</t>
-  </si>
-  <si>
-    <t>ProductCategory</t>
-  </si>
-  <si>
-    <t>商品分類</t>
-  </si>
-  <si>
-    <t>[Product, ProductCategoryApiController, ProductCategoryDataSource, ProductCategoryEntityMapper, ProductCategoryList, ProductCategoryRepository, ProductService]</t>
-  </si>
-  <si>
-    <t>ProductCategoryCode</t>
-  </si>
-  <si>
-    <t>商品分類コード</t>
-  </si>
-  <si>
-    <t>[Product, ProductCategory, ProductCategoryApiController, ProductCategoryDataSource, ProductCategoryEntityMapper, ProductEntityMapper]</t>
-  </si>
-  <si>
-    <t>ProductCategoryList</t>
-  </si>
-  <si>
-    <t>商品分類一覧</t>
-  </si>
-  <si>
-    <t>[ProductCategoryDataSource, ProductCategoryRepository, ProductService]</t>
-  </si>
-  <si>
-    <t>ProductCode</t>
-  </si>
-  <si>
-    <t>商品コード</t>
-  </si>
-  <si>
-    <t>[Bom, CustomerSpecificSellingPrice, Product, ProductApiController, ProductDataSource, ProductEntityMapper, ProductService, SubstituteProduct]</t>
-  </si>
-  <si>
-    <t>ProductList</t>
-  </si>
-  <si>
-    <t>商品一覧</t>
-  </si>
-  <si>
-    <t>[ProductDataSource, ProductRepository, ProductService]</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>[Product, ProductEntityMapper]</t>
-  </si>
-  <si>
-    <t>SubstituteProduct</t>
-  </si>
-  <si>
-    <t>代替商品</t>
-  </si>
-  <si>
-    <t>SupplierCode</t>
-  </si>
-  <si>
-    <t>仕入先コード</t>
-  </si>
-  <si>
-    <t>AuthUserDetails</t>
-  </si>
-  <si>
-    <t>認証ユーザー</t>
-  </si>
-  <si>
-    <t>[AuthApiController, AuthApiService, AuthService, JwtUtils]</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>[User, UserEntityMapper]</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>[AuthUserDetails, User, UserApiController, UserEntityMapper]</t>
-  </si>
-  <si>
-    <t>PasswordException</t>
-  </si>
-  <si>
-    <t>パスワード例外</t>
-  </si>
-  <si>
-    <t>[Password]</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>[AuthApiController, AuthRepository, AuthUserDetails, DepartmentService, Employee, EmployeeApiController, EmployeeEntityMapper, JwtDataSource, UserApiController, UserDataSource, UserEntityMapper, UserList, UserManagementService, UserRepository]</t>
-  </si>
-  <si>
-    <t>UserException</t>
-  </si>
-  <si>
-    <t>ユーザー例外</t>
-  </si>
-  <si>
-    <t>[User]</t>
-  </si>
-  <si>
-    <t>UserId</t>
-  </si>
-  <si>
-    <t>ユーザーID</t>
-  </si>
-  <si>
-    <t>[AuthApiController, AuthApiService, AuthUserDetails, EmployeeApiController, EmployeeEntityMapper, User, UserApiController, UserDataSource, UserEntityMapper, UserManagementService]</t>
-  </si>
-  <si>
-    <t>UserIdException</t>
-  </si>
-  <si>
-    <t>ユーザーID例外</t>
-  </si>
-  <si>
-    <t>[UserId]</t>
-  </si>
-  <si>
-    <t>UserList</t>
-  </si>
-  <si>
-    <t>ユーザー一覧</t>
-  </si>
-  <si>
-    <t>[UserDataSource, UserManagementService, UserRepository]</t>
-  </si>
-  <si>
-    <t>DepartmentLowerType</t>
-  </si>
-  <si>
-    <t>最下層区分</t>
-  </si>
-  <si>
-    <t>区分</t>
-  </si>
-  <si>
-    <t>[Department, DepartmentApiController, DepartmentEntityMapper, DepartmentResource]</t>
-  </si>
-  <si>
-    <t>SlitYnType</t>
-  </si>
-  <si>
-    <t>伝票入力可否</t>
-  </si>
-  <si>
-    <t>CurrencyType</t>
-  </si>
-  <si>
-    <t>通過タイプ</t>
-  </si>
-  <si>
-    <t>[Exchange, Expression, Money, Pair, Sum]</t>
-  </si>
-  <si>
-    <t>BusinessType</t>
-  </si>
-  <si>
-    <t>事業区分</t>
-  </si>
-  <si>
-    <t>[ProductCode]</t>
-  </si>
-  <si>
-    <t>ItemType</t>
-  </si>
-  <si>
-    <t>品目区分</t>
-  </si>
-  <si>
-    <t>LiveStockType</t>
-  </si>
-  <si>
-    <t>畜産区分</t>
-  </si>
-  <si>
-    <t>MiscellaneousType</t>
-  </si>
-  <si>
-    <t>雑区分</t>
-  </si>
-  <si>
-    <t>[Product, ProductApiController, ProductCategoryApiController, ProductCategoryEntityMapper, ProductEntityMapper, ProductResource]</t>
-  </si>
-  <si>
-    <t>ProductType</t>
-  </si>
-  <si>
-    <t>商品区分</t>
-  </si>
-  <si>
-    <t>[Product, ProductApiController, ProductCategoryApiController, ProductCategoryEntityMapper, ProductDataSource, ProductEntityMapper, ProductResource]</t>
-  </si>
-  <si>
-    <t>StockAllocationType</t>
-  </si>
-  <si>
-    <t>在庫引当区分</t>
-  </si>
-  <si>
-    <t>StockManagementTargetType</t>
-  </si>
-  <si>
-    <t>在庫管理対象区分</t>
-  </si>
-  <si>
-    <t>TaxType</t>
-  </si>
-  <si>
-    <t>税区分</t>
-  </si>
-  <si>
     <t>UnitType</t>
   </si>
   <si>
@@ -552,15 +546,6 @@
     <t>[Quantity]</t>
   </si>
   <si>
-    <t>RoleName</t>
-  </si>
-  <si>
-    <t>役割</t>
-  </si>
-  <si>
-    <t>[AuthApiController, AuthUserDetails, EmployeeEntityMapper, User, UserApiController, UserEntityMapper, UserResource]</t>
-  </si>
-  <si>
     <t>定数宣言</t>
   </si>
   <si>
@@ -591,48 +576,48 @@
     <t>[NOT_SLIT, SLIT]</t>
   </si>
   <si>
+    <t>[生鮮食料品, 缶詰, その他]</t>
+  </si>
+  <si>
+    <t>[String code]</t>
+  </si>
+  <si>
+    <t>[食肉, 水産物, その他]</t>
+  </si>
+  <si>
+    <t>[牛肉, 豚肉, まぐろ, えび, その他]</t>
+  </si>
+  <si>
+    <t>[適用外, 適用]</t>
+  </si>
+  <si>
+    <t>[Integer code]</t>
+  </si>
+  <si>
+    <t>[商品, 製品, 部品, 包材, その他]</t>
+  </si>
+  <si>
+    <t>[未引当, 引当済]</t>
+  </si>
+  <si>
+    <t>[対象外, 対象]</t>
+  </si>
+  <si>
+    <t>[外税, 内税, 非課税, その他]</t>
+  </si>
+  <si>
+    <t>[ADMIN, USER]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>[JPY, USD, CHF]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[生鮮食料品, 缶詰, その他]</t>
-  </si>
-  <si>
-    <t>[String code]</t>
-  </si>
-  <si>
-    <t>[食肉, 水産物, その他]</t>
-  </si>
-  <si>
-    <t>[牛肉, 豚肉, まぐろ, えび, その他]</t>
-  </si>
-  <si>
-    <t>[適用外, 適用]</t>
-  </si>
-  <si>
-    <t>[Integer code]</t>
-  </si>
-  <si>
-    <t>[商品, 製品, 部品, 包材, その他]</t>
-  </si>
-  <si>
-    <t>[未引当, 引当済]</t>
-  </si>
-  <si>
-    <t>[対象外, 対象]</t>
-  </si>
-  <si>
-    <t>[外税, 内税, 非課税, その他]</t>
-  </si>
-  <si>
     <t>[個, グラム, ミリリットル, パック, 本, セット, その他]</t>
   </si>
   <si>
-    <t>[ADMIN, USER]</t>
-  </si>
-  <si>
     <t>フィールドの型</t>
   </si>
   <si>
@@ -645,31 +630,31 @@
     <t>List&lt;Department&gt;</t>
   </si>
   <si>
-    <t>[asList():List&lt;Department&gt;, size():int]</t>
+    <t>[add(Department):DepartmentList, asList():List&lt;Department&gt;, size():int]</t>
   </si>
   <si>
     <t>List&lt;Employee&gt;</t>
   </si>
   <si>
-    <t>[asList():List&lt;Employee&gt;, size():int]</t>
+    <t>[add(Employee):EmployeeList, asList():List&lt;Employee&gt;, size():int]</t>
   </si>
   <si>
     <t>List&lt;ProductCategory&gt;</t>
   </si>
   <si>
-    <t>[asList():List&lt;ProductCategory&gt;, size():int]</t>
+    <t>[add(ProductCategory):ProductCategoryList, asList():List&lt;ProductCategory&gt;, size():int]</t>
   </si>
   <si>
     <t>List&lt;Product&gt;</t>
   </si>
   <si>
-    <t>[asList():List&lt;Product&gt;, size():int]</t>
+    <t>[add(Product):ProductList, asList():List&lt;Product&gt;, size():int]</t>
   </si>
   <si>
     <t>List&lt;User&gt;</t>
   </si>
   <si>
-    <t>[asList():List&lt;User&gt;, size():int]</t>
+    <t>[add(User):UserList, asList():List&lt;User&gt;, size():int]</t>
   </si>
   <si>
     <t>メンバ名</t>
@@ -846,12 +831,42 @@
     <t>voidを返している</t>
   </si>
   <si>
+    <t>equals(Object)</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>hashCode()</t>
+  </si>
+  <si>
+    <t>size()</t>
+  </si>
+  <si>
+    <t>getValue()</t>
+  </si>
+  <si>
+    <t>isAccountNonExpired()</t>
+  </si>
+  <si>
+    <t>isAccountNonLocked()</t>
+  </si>
+  <si>
+    <t>isCredentialsNonExpired()</t>
+  </si>
+  <si>
+    <t>isEnabled()</t>
+  </si>
+  <si>
+    <t>checkPolicy(String)</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
     <t>addRate(CurrencyType, CurrencyType, int)</t>
   </si>
   <si>
-    <t>void</t>
-  </si>
-  <si>
     <t>rate(CurrencyType, CurrencyType)</t>
   </si>
   <si>
@@ -864,37 +879,7 @@
     <t>times(int)</t>
   </si>
   <si>
-    <t>equals(Object)</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>getAmount()</t>
-  </si>
-  <si>
-    <t>hashCode()</t>
-  </si>
-  <si>
-    <t>size()</t>
-  </si>
-  <si>
-    <t>isAccountNonExpired()</t>
-  </si>
-  <si>
-    <t>isAccountNonLocked()</t>
-  </si>
-  <si>
-    <t>isCredentialsNonExpired()</t>
-  </si>
-  <si>
-    <t>isEnabled()</t>
-  </si>
-  <si>
-    <t>checkPolicy(String)</t>
-  </si>
-  <si>
-    <t>getValue()</t>
   </si>
 </sst>
 </file>
@@ -939,15 +924,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.51171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.2265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -969,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -980,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -991,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
@@ -1002,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1013,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -1024,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -1035,66 +1020,11 @@
         <v>17</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C13"/>
+  <autoFilter ref="A1:C8"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1107,16 +1037,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.51171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.62109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.55078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.71484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.75390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="19.87890625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="196.3359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.66796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="208.65625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1124,31 +1054,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="H1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="I1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="J1" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -1156,31 +1086,31 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1188,31 +1118,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1220,22 +1150,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>0</v>
@@ -1244,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1252,31 +1182,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -1284,54 +1214,54 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="F6" t="n" s="0">
+      <c r="G6" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="G6" t="n" s="0">
-        <v>1.0</v>
-      </c>
       <c r="H6" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>0</v>
@@ -1340,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>9.0</v>
-      </c>
       <c r="H8" t="s" s="0">
         <v>0</v>
       </c>
@@ -1372,24 +1302,24 @@
         <v>0</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>0.0</v>
@@ -1404,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>1.0</v>
@@ -1427,7 +1357,7 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>0</v>
@@ -1436,30 +1366,30 @@
         <v>0</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>0</v>
@@ -1468,30 +1398,30 @@
         <v>0</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>0</v>
@@ -1500,30 +1430,30 @@
         <v>0</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="F13" t="n" s="0">
-        <v>0.0</v>
-      </c>
       <c r="G13" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H13" t="s" s="0">
         <v>0</v>
@@ -1532,31 +1462,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F14" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>5.0</v>
-      </c>
       <c r="H14" t="s" s="0">
         <v>0</v>
       </c>
@@ -1564,31 +1494,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F15" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>10.0</v>
-      </c>
       <c r="H15" t="s" s="0">
         <v>0</v>
       </c>
@@ -1596,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>1.0</v>
@@ -1619,7 +1549,7 @@
         <v>0.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H16" t="s" s="0">
         <v>0</v>
@@ -1628,27 +1558,27 @@
         <v>0</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" t="n" s="0">
         <v>3.0</v>
@@ -1660,30 +1590,30 @@
         <v>0</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H18" t="s" s="0">
         <v>0</v>
@@ -1692,62 +1622,62 @@
         <v>0</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="G19" t="n" s="0">
-        <v>2.0</v>
-      </c>
       <c r="H19" t="s" s="0">
         <v>0</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H20" t="s" s="0">
         <v>0</v>
@@ -1756,94 +1686,94 @@
         <v>0</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="G21" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="s" s="0">
         <v>0</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F22" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="s" s="0">
         <v>0</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F23" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H23" t="s" s="0">
         <v>0</v>
@@ -1852,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>2.0</v>
@@ -1884,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="J24" t="s" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E25" t="n" s="0">
         <v>2.0</v>
@@ -1916,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n" s="0">
         <v>2.0</v>
@@ -1948,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E27" t="n" s="0">
         <v>0.0</v>
@@ -1980,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E28" t="n" s="0">
         <v>4.0</v>
@@ -2012,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E29" t="n" s="0">
         <v>0.0</v>
@@ -2044,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E30" t="n" s="0">
         <v>1.0</v>
@@ -2076,30 +2006,30 @@
         <v>0</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E31" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G31" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H31" t="s" s="0">
         <v>0</v>
@@ -2108,21 +2038,21 @@
         <v>0</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E32" t="n" s="0">
         <v>1.0</v>
@@ -2131,7 +2061,7 @@
         <v>0.0</v>
       </c>
       <c r="G32" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="H32" t="s" s="0">
         <v>0</v>
@@ -2140,30 +2070,30 @@
         <v>0</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E33" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F33" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G33" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H33" t="s" s="0">
         <v>0</v>
@@ -2172,30 +2102,30 @@
         <v>0</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E34" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F34" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H34" t="s" s="0">
         <v>0</v>
@@ -2204,31 +2134,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E35" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F35" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F35" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G35" t="n" s="0">
-        <v>4.0</v>
-      </c>
       <c r="H35" t="s" s="0">
         <v>0</v>
       </c>
@@ -2236,21 +2166,21 @@
         <v>0</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E36" t="n" s="0">
         <v>1.0</v>
@@ -2259,39 +2189,39 @@
         <v>0.0</v>
       </c>
       <c r="G36" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H36" t="s" s="0">
         <v>0</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E37" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G37" t="n" s="0">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="H37" t="s" s="0">
         <v>0</v>
@@ -2300,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E38" t="n" s="0">
         <v>1.0</v>
@@ -2323,30 +2253,30 @@
         <v>0.0</v>
       </c>
       <c r="G38" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H38" t="s" s="0">
         <v>0</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E39" t="n" s="0">
         <v>2.0</v>
@@ -2355,7 +2285,7 @@
         <v>1.0</v>
       </c>
       <c r="G39" t="n" s="0">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="H39" t="s" s="0">
         <v>0</v>
@@ -2364,21 +2294,21 @@
         <v>0</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E40" t="n" s="0">
         <v>1.0</v>
@@ -2393,33 +2323,33 @@
         <v>0</v>
       </c>
       <c r="I40" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E41" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F41" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n" s="0">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H41" t="s" s="0">
         <v>0</v>
@@ -2428,30 +2358,30 @@
         <v>0</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E42" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F42" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G42" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="H42" t="s" s="0">
         <v>0</v>
@@ -2460,21 +2390,21 @@
         <v>0</v>
       </c>
       <c r="J42" t="s" s="0">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E43" t="n" s="0">
         <v>1.0</v>
@@ -2483,39 +2413,39 @@
         <v>0.0</v>
       </c>
       <c r="G43" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H43" t="s" s="0">
         <v>0</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="E44" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F44" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G44" t="n" s="0">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="H44" t="s" s="0">
         <v>0</v>
@@ -2524,21 +2454,21 @@
         <v>0</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E45" t="n" s="0">
         <v>1.0</v>
@@ -2553,33 +2483,33 @@
         <v>0</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="E46" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F46" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="F46" t="n" s="0">
-        <v>0.0</v>
-      </c>
       <c r="G46" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H46" t="s" s="0">
         <v>0</v>
@@ -2588,123 +2518,123 @@
         <v>0</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="E47" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F47" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="G47" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H47" t="s" s="0">
         <v>0</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E48" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F48" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G48" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E49" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F49" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G49" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E50" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F50" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G50" t="n" s="0">
         <v>6.0</v>
@@ -2716,94 +2646,94 @@
         <v>0</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E51" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F51" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G51" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E52" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F52" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G52" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E53" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F53" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G53" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H53" t="s" s="0">
         <v>0</v>
@@ -2812,39 +2742,39 @@
         <v>0</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="E54" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F54" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="G54" t="n" s="0">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="H54" t="s" s="0">
         <v>0</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2861,16 +2791,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.62109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.55078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="39.5625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.51171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="119.0234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.55078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.390625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="4.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="27.76953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.25390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="126.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2878,60 +2808,60 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="J1" t="s" s="0">
         <v>179</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="J1" t="s" s="0">
-        <v>184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>0</v>
@@ -2939,31 +2869,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>0</v>
@@ -2971,28 +2901,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>0</v>
@@ -3003,28 +2933,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>0</v>
@@ -3035,28 +2965,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>0</v>
@@ -3067,31 +2997,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>0</v>
@@ -3099,31 +3029,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>0</v>
@@ -3131,31 +3061,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="0">
         <v>0</v>
@@ -3163,31 +3093,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>6.0</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>0</v>
@@ -3195,31 +3125,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>6.0</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>0</v>
@@ -3227,31 +3157,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>0</v>
@@ -3259,28 +3189,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s" s="0">
         <v>0</v>
@@ -3291,28 +3221,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="0">
         <v>0</v>
@@ -3335,14 +3265,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.51171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="73.75" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="33.40234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="78.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="69.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3350,155 +3280,155 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3515,13 +3445,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.62109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.05078125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.25390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3529,666 +3459,666 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>229</v>
-      </c>
       <c r="E6" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>240</v>
-      </c>
       <c r="C12" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>240</v>
-      </c>
       <c r="C13" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>240</v>
-      </c>
       <c r="C14" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>240</v>
-      </c>
       <c r="C15" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="C16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>245</v>
-      </c>
       <c r="E16" t="s" s="0">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>240</v>
-      </c>
       <c r="C17" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>240</v>
-      </c>
       <c r="C18" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>240</v>
-      </c>
       <c r="C19" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>250</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>251</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>254</v>
-      </c>
       <c r="E21" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F23" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="E23" t="s" s="0">
-        <v>227</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>257</v>
-      </c>
       <c r="G23" t="s" s="0">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>254</v>
-      </c>
       <c r="E24" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="D25" t="s" s="0">
+      <c r="E25" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="G25" t="s" s="0">
         <v>254</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>227</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>257</v>
-      </c>
-      <c r="G25" t="s" s="0">
-        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>0</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4205,18 +4135,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.51171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.93359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="33.3125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.24609375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.02734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="34.99609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.12890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="10.3515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4224,37 +4154,37 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="J1" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="K1" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="E1" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>180</v>
-      </c>
-      <c r="G1" t="s" s="0">
+      <c r="L1" t="s" s="0">
         <v>267</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>268</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>269</v>
-      </c>
-      <c r="J1" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="K1" t="s" s="0">
-        <v>271</v>
-      </c>
-      <c r="L1" t="s" s="0">
-        <v>272</v>
       </c>
     </row>
     <row r="2">
@@ -4262,16 +4192,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>0.0</v>
@@ -4280,19 +4210,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4300,31 +4230,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>0</v>
@@ -4338,34 +4268,34 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s" s="0">
         <v>0</v>
@@ -4376,31 +4306,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="0">
         <v>0</v>
@@ -4414,34 +4344,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="0">
         <v>0</v>
@@ -4452,16 +4382,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>0.0</v>
@@ -4470,16 +4400,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s" s="0">
         <v>0</v>
@@ -4490,34 +4420,34 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s" s="0">
         <v>0</v>
@@ -4528,16 +4458,16 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>0.0</v>
@@ -4546,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="0">
         <v>0</v>
@@ -4569,13 +4499,13 @@
         <v>40</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>0.0</v>
@@ -4584,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>0</v>
@@ -4604,25 +4534,25 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G11" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="0">
         <v>0</v>
@@ -4631,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s" s="0">
         <v>0</v>
@@ -4642,16 +4572,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.0</v>
@@ -4660,16 +4590,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s" s="0">
         <v>0</v>
@@ -4680,16 +4610,16 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -4698,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="0">
         <v>0</v>
@@ -4715,19 +4645,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>0.0</v>
@@ -4736,16 +4666,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s" s="0">
         <v>0</v>
@@ -4753,34 +4683,34 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="0">
         <v>0</v>
@@ -4791,34 +4721,34 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G16" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s" s="0">
         <v>0</v>
@@ -4832,13 +4762,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>7</v>
@@ -4850,16 +4780,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s" s="0">
         <v>0</v>
@@ -4867,19 +4797,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n" s="0">
         <v>0.0</v>
@@ -4888,16 +4818,16 @@
         <v>0</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s" s="0">
         <v>0</v>
@@ -4905,19 +4835,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F19" t="n" s="0">
         <v>0.0</v>
@@ -4926,16 +4856,16 @@
         <v>0</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s" s="0">
         <v>0</v>
@@ -4943,19 +4873,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F20" t="n" s="0">
         <v>0.0</v>
@@ -4964,16 +4894,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s" s="0">
         <v>0</v>
@@ -4981,19 +4911,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F21" t="n" s="0">
         <v>0.0</v>
@@ -5002,13 +4932,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s" s="0">
         <v>0</v>
@@ -5019,19 +4949,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F22" t="n" s="0">
         <v>0.0</v>
@@ -5040,16 +4970,16 @@
         <v>0</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L22" t="s" s="0">
         <v>0</v>
@@ -5057,19 +4987,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F23" t="n" s="0">
         <v>0.0</v>
@@ -5078,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="0">
         <v>0</v>
@@ -5095,19 +5025,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F24" t="n" s="0">
         <v>0.0</v>
@@ -5116,16 +5046,16 @@
         <v>0</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J24" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L24" t="s" s="0">
         <v>0</v>
@@ -5133,19 +5063,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F25" t="n" s="0">
         <v>0.0</v>
@@ -5154,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="0">
         <v>0</v>
@@ -5171,19 +5101,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F26" t="n" s="0">
         <v>0.0</v>
@@ -5192,16 +5122,16 @@
         <v>0</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L26" t="s" s="0">
         <v>0</v>
@@ -5209,19 +5139,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F27" t="n" s="0">
         <v>0.0</v>
@@ -5230,16 +5160,16 @@
         <v>0</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s" s="0">
         <v>0</v>
@@ -5247,19 +5177,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F28" t="n" s="0">
         <v>0.0</v>
@@ -5268,16 +5198,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L28" t="s" s="0">
         <v>0</v>
@@ -5285,19 +5215,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" t="n" s="0">
         <v>0.0</v>
@@ -5306,16 +5236,16 @@
         <v>0</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s" s="0">
         <v>0</v>
@@ -5326,16 +5256,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F30" t="n" s="0">
         <v>0.0</v>
@@ -5344,16 +5274,16 @@
         <v>0</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s" s="0">
         <v>0</v>
@@ -5361,19 +5291,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F31" t="n" s="0">
         <v>0.0</v>
@@ -5382,16 +5312,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L31" t="s" s="0">
         <v>0</v>
@@ -5399,19 +5329,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F32" t="n" s="0">
         <v>0.0</v>
@@ -5420,16 +5350,16 @@
         <v>0</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L32" t="s" s="0">
         <v>0</v>
@@ -5437,19 +5367,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F33" t="n" s="0">
         <v>0.0</v>
@@ -5458,16 +5388,16 @@
         <v>0</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s" s="0">
         <v>0</v>
@@ -5475,19 +5405,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n" s="0">
         <v>0.0</v>
@@ -5496,16 +5426,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L34" t="s" s="0">
         <v>0</v>
@@ -5513,19 +5443,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n" s="0">
         <v>0.0</v>
@@ -5534,13 +5464,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="0">
         <v>0</v>
@@ -5551,19 +5481,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F36" t="n" s="0">
         <v>0.0</v>
@@ -5572,16 +5502,16 @@
         <v>0</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L36" t="s" s="0">
         <v>0</v>
@@ -5589,19 +5519,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F37" t="n" s="0">
         <v>0.0</v>
@@ -5610,13 +5540,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="0">
         <v>0</v>
@@ -5627,19 +5557,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F38" t="n" s="0">
         <v>0.0</v>
@@ -5648,16 +5578,16 @@
         <v>0</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s" s="0">
         <v>0</v>
@@ -5665,19 +5595,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F39" t="n" s="0">
         <v>0.0</v>
@@ -5686,13 +5616,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="0">
         <v>0</v>
@@ -5703,19 +5633,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F40" t="n" s="0">
         <v>0.0</v>
@@ -5724,16 +5654,16 @@
         <v>0</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L40" t="s" s="0">
         <v>0</v>
@@ -5741,19 +5671,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F41" t="n" s="0">
         <v>0.0</v>
@@ -5762,16 +5692,16 @@
         <v>0</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L41" t="s" s="0">
         <v>0</v>
@@ -5779,19 +5709,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F42" t="n" s="0">
         <v>0.0</v>
@@ -5800,16 +5730,16 @@
         <v>0</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J42" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L42" t="s" s="0">
         <v>0</v>
@@ -5817,19 +5747,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F43" t="n" s="0">
         <v>0.0</v>
@@ -5838,13 +5768,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s" s="0">
         <v>0</v>
@@ -5855,19 +5785,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F44" t="n" s="0">
         <v>0.0</v>
@@ -5876,16 +5806,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L44" t="s" s="0">
         <v>0</v>
@@ -5893,19 +5823,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F45" t="n" s="0">
         <v>0.0</v>
@@ -5914,13 +5844,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="0">
         <v>0</v>
@@ -5931,19 +5861,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F46" t="n" s="0">
         <v>0.0</v>
@@ -5952,16 +5882,16 @@
         <v>0</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L46" t="s" s="0">
         <v>0</v>
@@ -5969,19 +5899,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F47" t="n" s="0">
         <v>0.0</v>
@@ -5990,13 +5920,13 @@
         <v>0</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="0">
         <v>0</v>
@@ -6007,19 +5937,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F48" t="n" s="0">
         <v>0.0</v>
@@ -6028,16 +5958,16 @@
         <v>0</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L48" t="s" s="0">
         <v>0</v>
@@ -6045,19 +5975,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F49" t="n" s="0">
         <v>0.0</v>
@@ -6066,13 +5996,13 @@
         <v>0</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="0">
         <v>0</v>
@@ -6083,19 +6013,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="F50" t="n" s="0">
         <v>0.0</v>
@@ -6104,16 +6034,16 @@
         <v>0</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L50" t="s" s="0">
         <v>0</v>
@@ -6121,19 +6051,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="F51" t="n" s="0">
         <v>0.0</v>
@@ -6142,16 +6072,16 @@
         <v>0</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L51" t="s" s="0">
         <v>0</v>
@@ -6159,19 +6089,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F52" t="n" s="0">
         <v>0.0</v>
@@ -6180,16 +6110,16 @@
         <v>0</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K52" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L52" t="s" s="0">
         <v>0</v>
@@ -6197,19 +6127,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F53" t="n" s="0">
         <v>0.0</v>
@@ -6218,16 +6148,16 @@
         <v>0</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L53" t="s" s="0">
         <v>0</v>
@@ -6238,16 +6168,16 @@
         <v>12</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F54" t="n" s="0">
         <v>0.0</v>
@@ -6256,16 +6186,16 @@
         <v>0</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L54" t="s" s="0">
         <v>0</v>
@@ -6276,16 +6206,16 @@
         <v>12</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F55" t="n" s="0">
         <v>0.0</v>
@@ -6294,16 +6224,16 @@
         <v>0</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L55" t="s" s="0">
         <v>0</v>
@@ -6314,37 +6244,37 @@
         <v>12</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F56" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G56" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K56" t="s" s="0">
         <v>0</v>
       </c>
       <c r="L56" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -6352,16 +6282,16 @@
         <v>12</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F57" t="n" s="0">
         <v>0.0</v>
@@ -6370,16 +6300,16 @@
         <v>0</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L57" t="s" s="0">
         <v>0</v>
@@ -6390,16 +6320,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F58" t="n" s="0">
         <v>0.0</v>
@@ -6408,16 +6338,16 @@
         <v>0</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J58" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L58" t="s" s="0">
         <v>0</v>
@@ -6428,16 +6358,16 @@
         <v>12</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="F59" t="n" s="0">
         <v>0.0</v>
@@ -6446,16 +6376,16 @@
         <v>0</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J59" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L59" t="s" s="0">
         <v>0</v>
@@ -6466,16 +6396,16 @@
         <v>12</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="F60" t="n" s="0">
         <v>0.0</v>
@@ -6484,16 +6414,16 @@
         <v>0</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L60" t="s" s="0">
         <v>0</v>
@@ -6504,16 +6434,16 @@
         <v>12</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="F61" t="n" s="0">
         <v>0.0</v>
@@ -6522,16 +6452,16 @@
         <v>0</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J61" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L61" t="s" s="0">
         <v>0</v>
@@ -6542,16 +6472,16 @@
         <v>12</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F62" t="n" s="0">
         <v>0.0</v>
@@ -6560,16 +6490,16 @@
         <v>0</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L62" t="s" s="0">
         <v>0</v>
@@ -6580,16 +6510,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="F63" t="n" s="0">
         <v>0.0</v>
@@ -6598,13 +6528,13 @@
         <v>0</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K63" t="s" s="0">
         <v>0</v>
@@ -6618,16 +6548,16 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="F64" t="n" s="0">
         <v>0.0</v>
@@ -6636,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="0">
         <v>0</v>
@@ -6645,10 +6575,10 @@
         <v>0</v>
       </c>
       <c r="K64" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L64" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
@@ -6656,25 +6586,25 @@
         <v>14</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="F65" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G65" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="0">
         <v>0</v>
@@ -6683,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L65" t="s" s="0">
         <v>0</v>
@@ -6694,25 +6624,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="F66" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="G66" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s" s="0">
         <v>0</v>
@@ -6721,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L66" t="s" s="0">
         <v>0</v>
@@ -6732,25 +6662,25 @@
         <v>14</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="F67" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G67" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s" s="0">
         <v>0</v>
@@ -6759,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L67" t="s" s="0">
         <v>0</v>
@@ -6767,37 +6697,37 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="F68" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I68" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J68" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K68" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L68" t="s" s="0">
         <v>0</v>
@@ -6805,19 +6735,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E69" t="s" s="0">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F69" t="n" s="0">
         <v>0.0</v>
@@ -6826,16 +6756,16 @@
         <v>0</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J69" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L69" t="s" s="0">
         <v>0</v>
@@ -6843,28 +6773,28 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="F70" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="G70" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I70" t="s" s="0">
         <v>0</v>
@@ -6876,24 +6806,24 @@
         <v>0</v>
       </c>
       <c r="L70" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n" s="0">
         <v>0.0</v>
@@ -6902,16 +6832,16 @@
         <v>0</v>
       </c>
       <c r="H71" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I71" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J71" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L71" t="s" s="0">
         <v>0</v>
@@ -6919,19 +6849,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="F72" t="n" s="0">
         <v>0.0</v>
@@ -6940,13 +6870,13 @@
         <v>0</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I72" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J72" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K72" t="s" s="0">
         <v>0</v>
@@ -6957,19 +6887,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="F73" t="n" s="0">
         <v>0.0</v>
@@ -6978,16 +6908,16 @@
         <v>0</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I73" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J73" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K73" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L73" t="s" s="0">
         <v>0</v>
@@ -6995,19 +6925,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="F74" t="n" s="0">
         <v>0.0</v>
@@ -7016,13 +6946,13 @@
         <v>0</v>
       </c>
       <c r="H74" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I74" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J74" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K74" t="s" s="0">
         <v>0</v>
@@ -7033,19 +6963,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F75" t="n" s="0">
         <v>0.0</v>
@@ -7054,16 +6984,16 @@
         <v>0</v>
       </c>
       <c r="H75" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I75" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J75" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K75" t="s" s="0">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L75" t="s" s="0">
         <v>0</v>
@@ -7074,16 +7004,16 @@
         <v>16</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E76" t="s" s="0">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="F76" t="n" s="0">
         <v>0.0</v>
@@ -7092,16 +7022,16 @@
         <v>0</v>
       </c>
       <c r="H76" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I76" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J76" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K76" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L76" t="s" s="0">
         <v>0</v>
@@ -7112,25 +7042,25 @@
         <v>16</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="F77" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G77" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H77" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I77" t="s" s="0">
         <v>0</v>
@@ -7147,34 +7077,34 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E78" t="s" s="0">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="F78" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G78" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H78" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I78" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J78" t="s" s="0">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s" s="0">
         <v>0</v>
@@ -7185,28 +7115,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="F79" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="s" s="0">
         <v>0</v>
       </c>
       <c r="H79" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I79" t="s" s="0">
         <v>0</v>
